--- a/RESULTS/SET 1 [0..5] Single/090.0%/BE.xlsx
+++ b/RESULTS/SET 1 [0..5] Single/090.0%/BE.xlsx
@@ -17,9 +17,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>Feature index</t>
   </si>
@@ -89,214 +86,184 @@
     <t>Mallow Test</t>
   </si>
   <si>
+    <t>010055</t>
+  </si>
+  <si>
+    <t>O-O</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>011155</t>
+  </si>
+  <si>
+    <t>H-H</t>
+  </si>
+  <si>
+    <t>001111</t>
+  </si>
+  <si>
+    <t>010155</t>
+  </si>
+  <si>
+    <t>O-H</t>
+  </si>
+  <si>
+    <t>001101</t>
+  </si>
+  <si>
+    <t>060155</t>
+  </si>
+  <si>
+    <t>006101</t>
+  </si>
+  <si>
+    <t>050155</t>
+  </si>
+  <si>
+    <t>005101</t>
+  </si>
+  <si>
+    <t>060055</t>
+  </si>
+  <si>
+    <t>006100</t>
+  </si>
+  <si>
+    <t>020155</t>
+  </si>
+  <si>
+    <t>002101</t>
+  </si>
+  <si>
+    <t>040055</t>
+  </si>
+  <si>
+    <t>004100</t>
+  </si>
+  <si>
+    <t>091155</t>
+  </si>
+  <si>
+    <t>009111</t>
+  </si>
+  <si>
+    <t>101155</t>
+  </si>
+  <si>
+    <t>010111</t>
+  </si>
+  <si>
+    <t>111155</t>
+  </si>
+  <si>
+    <t>011111</t>
+  </si>
+  <si>
+    <t>121155</t>
+  </si>
+  <si>
+    <t>012111</t>
+  </si>
+  <si>
+    <t>131155</t>
+  </si>
+  <si>
+    <t>013111</t>
+  </si>
+  <si>
+    <t>141155</t>
+  </si>
+  <si>
+    <t>014111</t>
+  </si>
+  <si>
+    <t>151155</t>
+  </si>
+  <si>
+    <t>015111</t>
+  </si>
+  <si>
+    <t>081155</t>
+  </si>
+  <si>
+    <t>008111</t>
+  </si>
+  <si>
+    <t>050055</t>
+  </si>
+  <si>
+    <t>005100</t>
+  </si>
+  <si>
+    <t>130055</t>
+  </si>
+  <si>
+    <t>013100</t>
+  </si>
+  <si>
+    <t>070155</t>
+  </si>
+  <si>
+    <t>007101</t>
+  </si>
+  <si>
+    <t>040155</t>
+  </si>
+  <si>
+    <t>004101</t>
+  </si>
+  <si>
+    <t>140055</t>
+  </si>
+  <si>
+    <t>014100</t>
+  </si>
+  <si>
+    <t>140155</t>
+  </si>
+  <si>
+    <t>014101</t>
+  </si>
+  <si>
+    <t>061155</t>
+  </si>
+  <si>
+    <t>006111</t>
+  </si>
+  <si>
+    <t>051155</t>
+  </si>
+  <si>
+    <t>005111</t>
+  </si>
+  <si>
+    <t>150055</t>
+  </si>
+  <si>
+    <t>015100</t>
+  </si>
+  <si>
+    <t>150155</t>
+  </si>
+  <si>
+    <t>015101</t>
+  </si>
+  <si>
     <t>030055</t>
   </si>
   <si>
-    <t>O-O</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>003100</t>
   </si>
   <si>
-    <t>010155</t>
-  </si>
-  <si>
-    <t>O-H</t>
-  </si>
-  <si>
-    <t>001101</t>
-  </si>
-  <si>
-    <t>011155</t>
-  </si>
-  <si>
-    <t>H-H</t>
-  </si>
-  <si>
-    <t>001111</t>
-  </si>
-  <si>
     <t>071155</t>
   </si>
   <si>
     <t>007111</t>
-  </si>
-  <si>
-    <t>060055</t>
-  </si>
-  <si>
-    <t>006100</t>
-  </si>
-  <si>
-    <t>121155</t>
-  </si>
-  <si>
-    <t>012111</t>
-  </si>
-  <si>
-    <t>021155</t>
-  </si>
-  <si>
-    <t>002111</t>
-  </si>
-  <si>
-    <t>131155</t>
-  </si>
-  <si>
-    <t>013111</t>
-  </si>
-  <si>
-    <t>080055</t>
-  </si>
-  <si>
-    <t>008100</t>
-  </si>
-  <si>
-    <t>141155</t>
-  </si>
-  <si>
-    <t>014111</t>
-  </si>
-  <si>
-    <t>151155</t>
-  </si>
-  <si>
-    <t>015111</t>
-  </si>
-  <si>
-    <t>130055</t>
-  </si>
-  <si>
-    <t>013100</t>
-  </si>
-  <si>
-    <t>060155</t>
-  </si>
-  <si>
-    <t>006101</t>
-  </si>
-  <si>
-    <t>050155</t>
-  </si>
-  <si>
-    <t>005101</t>
-  </si>
-  <si>
-    <t>030155</t>
-  </si>
-  <si>
-    <t>003101</t>
-  </si>
-  <si>
-    <t>050055</t>
-  </si>
-  <si>
-    <t>005100</t>
-  </si>
-  <si>
-    <t>070055</t>
-  </si>
-  <si>
-    <t>007100</t>
-  </si>
-  <si>
-    <t>081155</t>
-  </si>
-  <si>
-    <t>008111</t>
-  </si>
-  <si>
-    <t>120055</t>
-  </si>
-  <si>
-    <t>012100</t>
-  </si>
-  <si>
-    <t>110155</t>
-  </si>
-  <si>
-    <t>011101</t>
-  </si>
-  <si>
-    <t>040055</t>
-  </si>
-  <si>
-    <t>004100</t>
-  </si>
-  <si>
-    <t>150155</t>
-  </si>
-  <si>
-    <t>015101</t>
-  </si>
-  <si>
-    <t>091155</t>
-  </si>
-  <si>
-    <t>009111</t>
-  </si>
-  <si>
-    <t>110055</t>
-  </si>
-  <si>
-    <t>011100</t>
-  </si>
-  <si>
-    <t>020055</t>
-  </si>
-  <si>
-    <t>002100</t>
-  </si>
-  <si>
-    <t>111155</t>
-  </si>
-  <si>
-    <t>011111</t>
-  </si>
-  <si>
-    <t>010055</t>
-  </si>
-  <si>
-    <t>001100</t>
-  </si>
-  <si>
-    <t>140055</t>
-  </si>
-  <si>
-    <t>014100</t>
-  </si>
-  <si>
-    <t>150055</t>
-  </si>
-  <si>
-    <t>015100</t>
-  </si>
-  <si>
-    <t>120155</t>
-  </si>
-  <si>
-    <t>012101</t>
-  </si>
-  <si>
-    <t>061155</t>
-  </si>
-  <si>
-    <t>006111</t>
-  </si>
-  <si>
-    <t>041155</t>
-  </si>
-  <si>
-    <t>004111</t>
-  </si>
-  <si>
-    <t>020155</t>
-  </si>
-  <si>
-    <t>002101</t>
   </si>
 </sst>
 </file>
@@ -720,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -729,7 +696,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -744,27 +711,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.68380654566562</v>
+        <v>0.3224426332206767</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.98118971618133e-07</v>
+        <v>3.771750137565908e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006309666961243938</v>
+        <v>0.0006141457593736122</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9215929462597502</v>
+        <v>0.9251579574607374</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9196774644908516</v>
+        <v>0.9233295687993548</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>63.48120657685462</v>
+        <v>55.74518582482526</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -773,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -797,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1599009922401726</v>
+        <v>0.08767145957550429</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -816,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -840,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1844762194387432</v>
+        <v>-0.1902362453595675</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -859,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -868,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -883,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>33.32216267182504</v>
+        <v>1.624873335575505</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -902,16 +869,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -920,13 +887,13 @@
         <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-143.5333219142005</v>
+        <v>-1.253306248327571</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -945,16 +912,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -963,13 +930,13 @@
         <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-36153.01340836696</v>
+        <v>14.23594151938109</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -988,7 +955,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -1012,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.3243673467412176</v>
+        <v>0.1557552474308688</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -1031,16 +998,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1049,13 +1016,13 @@
         <v>39</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>171684.5698636277</v>
+        <v>-2.517790335826621</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -1074,16 +1041,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1092,13 +1059,13 @@
         <v>41</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>846.6218845608308</v>
+        <v>-27384.74341558181</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -1117,16 +1084,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1141,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-281185.3837690232</v>
+        <v>322665.2815016801</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -1160,16 +1127,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1184,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>157344.0352659572</v>
+        <v>-1583006.795604048</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -1203,16 +1170,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1221,13 +1188,13 @@
         <v>47</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-18301.27449009367</v>
+        <v>4124614.578910164</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -1246,7 +1213,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
@@ -1255,7 +1222,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1270,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.65880015057337</v>
+        <v>-6004425.982545527</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -1289,7 +1256,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -1298,7 +1265,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>-5</v>
+        <v>-14</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1313,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>-2.325008628366049</v>
+        <v>4621014.290174644</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -1332,7 +1299,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -1341,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="n">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -1356,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3408753012336092</v>
+        <v>-1466097.028927578</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -1459,10 +1426,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -1471,7 +1438,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -1480,27 +1447,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06399004347853089</v>
+        <v>0.06335636221347365</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.480350299790353e-07</v>
+        <v>4.462237756031335e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006693541887364532</v>
+        <v>0.0006679998320382525</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9117622892214851</v>
+        <v>0.9114567572674038</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9109124878335699</v>
+        <v>0.9106040133566565</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>139.5951698468623</v>
+        <v>169.1443391174558</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1512,10 +1479,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -1524,7 +1491,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -1533,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1238327431094033</v>
+        <v>-0.122498069663125</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1555,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -1567,7 +1534,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1576,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2412799892090731</v>
+        <v>0.2376351596767912</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1598,7 +1565,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -1610,7 +1577,7 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1619,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>18078.33610979694</v>
+        <v>17924.56583501551</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1638,22 +1605,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -1662,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.04520657549399968</v>
+        <v>-0.1247415348899448</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -1681,22 +1648,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -1705,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>4.545295825966021</v>
+        <v>2.185590155894407</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1808,10 +1775,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -1820,7 +1787,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -1829,27 +1796,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1192267956906047</v>
+        <v>-0.1164416064562512</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.664415356408996e-07</v>
+        <v>4.72275643837771e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000682965252147501</v>
+        <v>0.0006872231397717709</v>
       </c>
       <c r="N2" t="n">
-        <v>0.908137242485495</v>
+        <v>0.9062873399954997</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9074011626977185</v>
+        <v>0.9055364372711047</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>169.9832267310317</v>
+        <v>214.4352579796462</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1861,10 +1828,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -1873,7 +1840,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -1882,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05814046349226902</v>
+        <v>0.0569795670805225</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1904,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -1916,7 +1883,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1925,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2447519637378739</v>
+        <v>0.2382774679170211</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1944,22 +1911,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1968,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>4342.824345109727</v>
+        <v>22840.96656521969</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1987,22 +1954,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -2011,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-8.14606886976299</v>
+        <v>-1.962325864555214</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2024,666 +1991,6 @@
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.1331564783231113</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>6.141874964631921e-07</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.000783701152521286</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.8790395950083741</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.8782654484164277</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>419.8757757465723</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.06491617187513418</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.2711627444648754</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>13383.39480478107</v>
-      </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.08136902549727652</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>1.182685211467592e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.001087513315535765</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.7670775081216588</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.7659612661478009</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>1385.450644246301</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.03939961375367726</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1664917298056274</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.01647646912222756</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>2.167383375011909e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.001472203577978232</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.5731473331462245</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.5717857616411087</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>3062.383053300694</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.003644820972285671</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2771,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -2795,27 +2102,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1182268606676232</v>
+        <v>0.09055792836959502</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.019223383663375e-07</v>
+        <v>3.779445081515337e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000633973452414482</v>
+        <v>0.0006147719155520473</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9208438968491977</v>
+        <v>0.9250052683107683</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9190419692977972</v>
+        <v>0.9232980711666232</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>68.90880722065528</v>
+        <v>56.15143339185698</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -2824,13 +2131,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -2839,16 +2146,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1460523739061037</v>
+        <v>0.3005043776211163</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2867,22 +2174,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -2891,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2347561970127374</v>
+        <v>-0.1867639004299674</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -2910,31 +2217,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>208.8285267269081</v>
+        <v>1.539855319452253</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2953,16 +2260,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -2971,13 +2278,13 @@
         <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-1166.667197892042</v>
+        <v>-1.186034069334716</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2996,31 +2303,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1771.458429598673</v>
+        <v>-184380.0602529469</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3039,22 +2346,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -3063,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>113.4289941748519</v>
+        <v>344471.2094033069</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3082,23 +2389,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
       <c r="H9" t="n">
         <v>4</v>
       </c>
@@ -3106,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-46513.29169525524</v>
+        <v>46930.01184393602</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3125,22 +2432,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -3149,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>213204.8804181267</v>
+        <v>-271573.7854831971</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3168,22 +2475,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -3192,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-341157.2006578798</v>
+        <v>-4701.756851432961</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3211,22 +2518,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -3235,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>187841.4315961295</v>
+        <v>79591.24264342619</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3254,31 +2561,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-11397.32206700999</v>
+        <v>0.1477137768524699</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3297,31 +2604,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E14" t="n">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.142340234888252</v>
+        <v>26.46383011831495</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3340,31 +2647,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.1805567925912328</v>
+        <v>-10.60910438123392</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -3464,13 +2771,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -3479,36 +2786,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1241902156748827</v>
+        <v>0.2391407230579394</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.059418247840996e-07</v>
+        <v>3.824370727349346e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006371356408050797</v>
+        <v>0.0006184149680715488</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9200522840147609</v>
+        <v>0.9241138181950449</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9183650757228646</v>
+        <v>0.9225123240985118</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>74.71836412606989</v>
+        <v>63.05589976482082</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -3517,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -3541,7 +2848,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1501518391434106</v>
+        <v>-0.1545420862309087</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -3560,22 +2867,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -3584,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2374845343890706</v>
+        <v>0.08238847896679166</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -3603,22 +2910,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -3627,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>18.61632833551871</v>
+        <v>2025.395408243407</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -3646,31 +2953,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-252.8296255419864</v>
+        <v>0.555567732872296</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -3689,22 +2996,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -3713,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>114.1170821689896</v>
+        <v>170498.0861763783</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3732,31 +3039,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1213.726316290116</v>
+        <v>-121049.6530881593</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3775,22 +3082,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -3799,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-47565.89346326493</v>
+        <v>-227603.9314900281</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3818,22 +3125,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -3842,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>218812.7752593867</v>
+        <v>34448.07733727021</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3864,10 +3171,10 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
         <v>-14</v>
@@ -3876,7 +3183,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -3885,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-351317.3082582022</v>
+        <v>159397.281247774</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3904,22 +3211,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -3928,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>194053.8759831002</v>
+        <v>-3653.879500778916</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3947,31 +3254,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-9614.62078957622</v>
+        <v>-0.2347044224297861</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3990,22 +3297,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>-15</v>
+        <v>-2</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
@@ -4014,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>4.448293766799907</v>
+        <v>0.09252935308904853</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -4117,10 +3424,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -4129,7 +3436,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -4138,27 +3445,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1191059851864886</v>
+        <v>-0.1227001401995278</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.189449672409736e-07</v>
+        <v>3.827833489939604e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006472595825794884</v>
+        <v>0.0006186948755193956</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9174913960338029</v>
+        <v>0.9240451073272432</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9158866906082043</v>
+        <v>0.9225678646820681</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>95.59436000314395</v>
+        <v>62.74198988719192</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4167,13 +3474,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -4182,16 +3489,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1358637766324657</v>
+        <v>0.239552336771355</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4210,22 +3517,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -4234,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2019310251806597</v>
+        <v>0.05699328935885173</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4253,22 +3560,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-3</v>
+        <v>-14</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -4277,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.779652311982908</v>
+        <v>5150.544774962862</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4296,22 +3603,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>-9</v>
+        <v>-14</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -4320,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>472.7504388332632</v>
+        <v>3.337628964944836</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4342,10 +3649,10 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
         <v>-12</v>
@@ -4354,7 +3661,7 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -4363,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-62814.25930722314</v>
+        <v>-535262.3366776659</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4385,10 +3692,10 @@
         <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
         <v>-13</v>
@@ -4397,7 +3704,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -4406,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>271507.532172539</v>
+        <v>231034.0596592543</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -4425,22 +3732,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -4449,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-419488.8165121077</v>
+        <v>483390.4983244779</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -4468,22 +3775,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -4492,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>225832.3228120255</v>
+        <v>-205784.6870178012</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -4511,31 +3818,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-583.2969948823011</v>
+        <v>36150.23577383358</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -4554,31 +3861,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1533.505224842113</v>
+        <v>-298.1565116185811</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -4597,16 +3904,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -4615,13 +3922,13 @@
         <v>71</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-3471.869856484496</v>
+        <v>46.79984250818961</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -4721,51 +4028,51 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7009386197448123</v>
+        <v>0.06337516029401</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.193943290053166e-07</v>
+        <v>3.91972174547634e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006476066159369565</v>
+        <v>0.0006260768120188081</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9174028970309485</v>
+        <v>0.9222217880513335</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9159327220590074</v>
+        <v>0.920837386220532</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>95.48337609036187</v>
+        <v>77.9034188007209</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4777,10 +4084,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -4789,7 +4096,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -4798,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1193349743582492</v>
+        <v>-0.1224817997474336</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4817,13 +4124,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -4832,16 +4139,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.115226434089656</v>
+        <v>0.2388034142677739</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4860,31 +4167,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-2</v>
+        <v>-14</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.1440555205805703</v>
+        <v>5239.518878131258</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4903,31 +4210,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>188.2116451611963</v>
+        <v>-15834.36455012447</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4946,31 +4253,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-35.24656122638808</v>
+        <v>174773.2067957883</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4989,22 +4296,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -5013,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>23753.08511125662</v>
+        <v>-767787.2798475259</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5032,22 +4339,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -5056,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-182167.0646885169</v>
+        <v>1675730.432074649</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5075,22 +4382,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5099,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>527814.5489962088</v>
+        <v>-1816030.2275609</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5118,22 +4425,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5142,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-682984.4718176305</v>
+        <v>781716.6851320401</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5161,22 +4468,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
       </c>
       <c r="E12" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -5185,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>332428.9152785663</v>
+        <v>3.18725963364886</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -5285,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -5309,27 +4616,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1263018801860782</v>
+        <v>0.0625771934073136</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.255175849003249e-07</v>
+        <v>4.17018430745416e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006523170892290995</v>
+        <v>0.0006457696421677129</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9161969598909175</v>
+        <v>0.9172519122551245</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9148431143318048</v>
+        <v>0.9159151095451912</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>104.9074754977976</v>
+        <v>120.9101946937639</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5338,13 +4645,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -5353,16 +4660,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2531238169495836</v>
+        <v>-0.1201717533222402</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5381,13 +4688,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -5396,16 +4703,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0630128298886567</v>
+        <v>0.2327232619390669</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5424,22 +4731,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -5448,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-111862.6520837394</v>
+        <v>18264.26815716392</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5467,31 +4774,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>607483.0209772923</v>
+        <v>-14529.13318243073</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -5510,31 +4817,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-811354.5539568195</v>
+        <v>160154.4969527</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -5556,10 +4863,10 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
         <v>-12</v>
@@ -5568,7 +4875,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -5577,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-471.9074143938396</v>
+        <v>-703600.074062273</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5599,10 +4906,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
         <v>-13</v>
@@ -5611,7 +4918,7 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -5620,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1707.977906719043</v>
+        <v>1537110.898522219</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5642,10 +4949,10 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
         <v>-14</v>
@@ -5654,7 +4961,7 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5663,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-1545.383627862817</v>
+        <v>-1668398.774378149</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5682,10 +4989,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -5697,7 +5004,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5706,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>4.144729813995035</v>
+        <v>719565.2678139602</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5809,10 +5116,10 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -5821,7 +5128,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -5830,27 +5137,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1213594382948449</v>
+        <v>-0.1234930835215582</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.371059771219753e-07</v>
+        <v>4.192995445474205e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006611399073736022</v>
+        <v>0.0006475334312199027</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9139146981639945</v>
+        <v>0.9167992756541308</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9126650728147622</v>
+        <v>0.9155915232039488</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>123.561486524445</v>
+        <v>124.0936497360208</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5859,13 +5166,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -5874,16 +5181,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.243550004944162</v>
+        <v>0.06170832028175381</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5902,13 +5209,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -5917,16 +5224,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06044783470276135</v>
+        <v>0.2489889434227209</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5945,31 +5252,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-68.35100703010191</v>
+        <v>2287.848655848633</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5988,31 +5295,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-92310.97398618647</v>
+        <v>4.484105727461967</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6031,31 +5338,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>482672.2644388271</v>
+        <v>-1101.324706445743</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6074,22 +5381,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -6098,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>671.1294963872843</v>
+        <v>3992.620528673903</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6117,13 +5424,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
         <v>-15</v>
@@ -6132,16 +5439,16 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-615681.6522785454</v>
+        <v>-3616.362544492371</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6160,31 +5467,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>-14</v>
+        <v>-3</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-808.3238480721899</v>
+        <v>-0.04751518689040671</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -6287,10 +5594,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -6299,7 +5606,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -6308,27 +5615,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06455869484765468</v>
+        <v>0.06346944442524365</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.357915956300008e-07</v>
+        <v>4.257153135539154e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006601451322474481</v>
+        <v>0.0006524686303217308</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9141735574186981</v>
+        <v>0.9155262081406607</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9130679027638665</v>
+        <v>0.9144379789379639</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>120.5305640137343</v>
+        <v>134.560208725749</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6340,10 +5647,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -6352,7 +5659,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -6361,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1266795645167341</v>
+        <v>-0.1243844383339987</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6383,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -6395,7 +5702,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -6404,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2486217578248234</v>
+        <v>0.2436170085698462</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6426,7 +5733,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -6438,7 +5745,7 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -6447,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>5830.12034663621</v>
+        <v>5448.870030766106</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6469,10 +5776,10 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
         <v>-7</v>
@@ -6481,7 +5788,7 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -6490,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.8714939955198856</v>
+        <v>-0.7497845748304764</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6509,22 +5816,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6533,7 +5840,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>107.9303671758577</v>
+        <v>4.384434140191689</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6552,22 +5859,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -6576,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-256.3879382033521</v>
+        <v>301.9301919847945</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6595,22 +5902,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -6619,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8400764830333528</v>
+        <v>-462.4686057924514</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6722,10 +6029,10 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -6734,7 +6041,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -6743,27 +6050,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06338187252820289</v>
+        <v>0.06320787818781139</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.44651389706431e-07</v>
+        <v>4.278951471659836e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006668218575499988</v>
+        <v>0.0006541369483265592</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9124286761148638</v>
+        <v>0.9150936683541619</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9114431467463815</v>
+        <v>0.9141381308597554</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>134.6687505495542</v>
+        <v>137.6027733073159</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6775,10 +6082,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -6787,7 +6094,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -6796,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1237808751621554</v>
+        <v>-0.123472630888403</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6818,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -6830,7 +6137,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -6839,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2420922928598108</v>
+        <v>0.2416741659933494</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6861,7 +6168,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -6873,7 +6180,7 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -6882,7 +6189,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>18321.17178726804</v>
+        <v>14163.72751372437</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6901,22 +6208,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -6925,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.312989140639477</v>
+        <v>-0.09500712742214834</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6944,22 +6251,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6968,7 +6275,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>269.5768064698473</v>
+        <v>5.599464599936733</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6987,10 +6294,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -7002,7 +6309,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -7011,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-425.6849788491446</v>
+        <v>3.946939583980737</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
